--- a/ПЛАН на Январь 22г.xlsx
+++ b/ПЛАН на Январь 22г.xlsx
@@ -33,32 +33,32 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={00C6005C-001F-4DD7-A2F4-0067000400B4}</author>
-    <author>tc={00E20070-0029-4E71-931B-002900170011}</author>
-    <author>tc={006F002E-0040-43D7-B376-0072007200ED}</author>
-    <author>tc={00D300EF-007F-49F9-BD49-00C800AA00EF}</author>
-    <author>tc={008E00B8-00D2-491A-BD03-0094008B0070}</author>
-    <author>tc={00C40000-005A-429A-BE76-00E900D10097}</author>
-    <author>tc={008F00CD-0065-4DB1-9E1A-0082006E00DA}</author>
-    <author>tc={003800B7-004E-48C8-9AE5-00F2001C0074}</author>
-    <author>tc={00460071-00C9-4B22-A43E-0004003200DD}</author>
-    <author>tc={0033003E-008F-4514-A317-008B00160029}</author>
-    <author>tc={002E00E3-0043-47C4-9C6A-00B6008C0070}</author>
-    <author>tc={006D0004-00FE-40A7-9635-00A400600023}</author>
-    <author>tc={007D005C-00AB-47C6-9CEF-00DE00E5001E}</author>
-    <author>tc={0099008D-0038-44D9-AE4F-003000C500B7}</author>
-    <author>tc={001700C5-00F0-4A7C-B4F5-004F009A006A}</author>
-    <author>tc={009C00CD-00E1-4EA1-AA6D-00E1002000C6}</author>
-    <author>tc={00BF005A-0046-4321-A3E7-009B0033009B}</author>
-    <author>tc={00540008-0014-4581-9D4F-00F800D600FB}</author>
-    <author>tc={00EF00A1-00E2-466B-A243-000D003100BF}</author>
-    <author>tc={00CD00AB-00EE-4AF2-A738-009100B80084}</author>
-    <author>tc={005C0000-0081-45AA-B123-00C60080009D}</author>
-    <author>tc={00EB00D5-003A-40F6-AF6E-002900AB00D2}</author>
-    <author>tc={0075001C-00AB-4C98-B70F-00D6007A00B1}</author>
+    <author>tc={00F80041-00C1-4402-A9AB-004800510087}</author>
+    <author>tc={00F90019-003D-4E78-A98D-000200AC0095}</author>
+    <author>tc={003A00C6-004E-45F0-A9C8-007A00F50075}</author>
+    <author>tc={00CF00F9-0090-44C3-8025-0084007F00F6}</author>
+    <author>tc={004A0079-00B1-4D6F-A834-0038004A0080}</author>
+    <author>tc={0049003B-00CC-4A3B-801B-00E60046004A}</author>
+    <author>tc={00D200D4-00FB-407E-9101-00FC00E5000B}</author>
+    <author>tc={0010000C-0044-4DF3-B8F9-0006004500DB}</author>
+    <author>tc={007300E6-00F5-427E-918B-0072004F0053}</author>
+    <author>tc={00290079-0025-45CF-B141-000F00B4000D}</author>
+    <author>tc={002800FF-0099-46A0-A987-00D800C7001C}</author>
+    <author>tc={008A0016-001B-43E1-96A3-00CD001800F5}</author>
+    <author>tc={00D3003D-00AE-485E-BCF8-00CC00B5005A}</author>
+    <author>tc={001300C1-00D8-47CF-B7E3-008A006E0074}</author>
+    <author>tc={00D20082-002F-40C0-B819-005000BA0088}</author>
+    <author>tc={006000E2-00A9-4282-9A01-009F003F00A8}</author>
+    <author>tc={007A004D-00C9-40A7-9CF9-009600C60012}</author>
+    <author>tc={00BB004E-0061-4091-9816-008B00CB00DE}</author>
+    <author>tc={003800DF-0006-4DC1-824C-00F900B00043}</author>
+    <author>tc={00520033-00E1-42E9-9993-00E7000B0077}</author>
+    <author>tc={00A0000A-0043-4E99-8463-00F200DF00D3}</author>
+    <author>tc={00A2000D-0011-43F9-A483-006100E2002A}</author>
+    <author>tc={002500D6-00C5-414B-BFBB-00C1009B0007}</author>
   </authors>
   <commentList>
-    <comment ref="O130" authorId="0" xr:uid="{00C6005C-001F-4DD7-A2F4-0067000400B4}">
+    <comment ref="O130" authorId="0" xr:uid="{00F80041-00C1-4402-A9AB-004800510087}">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="1" xr:uid="{00E20070-0029-4E71-931B-002900170011}">
+    <comment ref="T3" authorId="1" xr:uid="{00F90019-003D-4E78-A98D-000200AC0095}">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T4" authorId="2" xr:uid="{006F002E-0040-43D7-B376-0072007200ED}">
+    <comment ref="T4" authorId="2" xr:uid="{003A00C6-004E-45F0-A9C8-007A00F50075}">
       <text>
         <r>
           <rPr>
@@ -121,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C114" authorId="3" xr:uid="{00D300EF-007F-49F9-BD49-00C800AA00EF}">
+    <comment ref="C114" authorId="3" xr:uid="{00CF00F9-0090-44C3-8025-0084007F00F6}">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R116" authorId="4" xr:uid="{008E00B8-00D2-491A-BD03-0094008B0070}">
+    <comment ref="R116" authorId="4" xr:uid="{004A0079-00B1-4D6F-A834-0038004A0080}">
       <text>
         <r>
           <rPr>
@@ -163,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O114" authorId="5" xr:uid="{00C40000-005A-429A-BE76-00E900D10097}">
+    <comment ref="O114" authorId="5" xr:uid="{0049003B-00CC-4A3B-801B-00E60046004A}">
       <text>
         <r>
           <rPr>
@@ -184,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P114" authorId="6" xr:uid="{008F00CD-0065-4DB1-9E1A-0082006E00DA}">
+    <comment ref="P114" authorId="6" xr:uid="{00D200D4-00FB-407E-9101-00FC00E5000B}">
       <text>
         <r>
           <rPr>
@@ -205,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C117" authorId="7" xr:uid="{003800B7-004E-48C8-9AE5-00F2001C0074}">
+    <comment ref="C117" authorId="7" xr:uid="{0010000C-0044-4DF3-B8F9-0006004500DB}">
       <text>
         <r>
           <rPr>
@@ -226,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S114" authorId="8" xr:uid="{00460071-00C9-4B22-A43E-0004003200DD}">
+    <comment ref="S114" authorId="8" xr:uid="{007300E6-00F5-427E-918B-0072004F0053}">
       <text>
         <r>
           <rPr>
@@ -247,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q117" authorId="9" xr:uid="{0033003E-008F-4514-A317-008B00160029}">
+    <comment ref="Q117" authorId="9" xr:uid="{00290079-0025-45CF-B141-000F00B4000D}">
       <text>
         <r>
           <rPr>
@@ -268,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P115" authorId="10" xr:uid="{002E00E3-0043-47C4-9C6A-00B6008C0070}">
+    <comment ref="P115" authorId="10" xr:uid="{002800FF-0099-46A0-A987-00D800C7001C}">
       <text>
         <r>
           <rPr>
@@ -289,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C115" authorId="11" xr:uid="{006D0004-00FE-40A7-9635-00A400600023}">
+    <comment ref="C115" authorId="11" xr:uid="{008A0016-001B-43E1-96A3-00CD001800F5}">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q115" authorId="12" xr:uid="{007D005C-00AB-47C6-9CEF-00DE00E5001E}">
+    <comment ref="Q115" authorId="12" xr:uid="{00D3003D-00AE-485E-BCF8-00CC00B5005A}">
       <text>
         <r>
           <rPr>
@@ -331,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q133" authorId="13" xr:uid="{0099008D-0038-44D9-AE4F-003000C500B7}">
+    <comment ref="Q133" authorId="13" xr:uid="{001300C1-00D8-47CF-B7E3-008A006E0074}">
       <text>
         <r>
           <rPr>
@@ -352,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C116" authorId="14" xr:uid="{001700C5-00F0-4A7C-B4F5-004F009A006A}">
+    <comment ref="C116" authorId="14" xr:uid="{00D20082-002F-40C0-B819-005000BA0088}">
       <text>
         <r>
           <rPr>
@@ -373,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R117" authorId="15" xr:uid="{009C00CD-00E1-4EA1-AA6D-00E1002000C6}">
+    <comment ref="R117" authorId="15" xr:uid="{006000E2-00A9-4282-9A01-009F003F00A8}">
       <text>
         <r>
           <rPr>
@@ -394,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P130" authorId="16" xr:uid="{00BF005A-0046-4321-A3E7-009B0033009B}">
+    <comment ref="P130" authorId="16" xr:uid="{007A004D-00C9-40A7-9CF9-009600C60012}">
       <text>
         <r>
           <rPr>
@@ -415,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q131" authorId="17" xr:uid="{00540008-0014-4581-9D4F-00F800D600FB}">
+    <comment ref="Q131" authorId="17" xr:uid="{00BB004E-0061-4091-9816-008B00CB00DE}">
       <text>
         <r>
           <rPr>
@@ -436,7 +436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S130" authorId="18" xr:uid="{00EF00A1-00E2-466B-A243-000D003100BF}">
+    <comment ref="S130" authorId="18" xr:uid="{003800DF-0006-4DC1-824C-00F900B00043}">
       <text>
         <r>
           <rPr>
@@ -457,7 +457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E184" authorId="19" xr:uid="{00CD00AB-00EE-4AF2-A738-009100B80084}">
+    <comment ref="E184" authorId="19" xr:uid="{00520033-00E1-42E9-9993-00E7000B0077}">
       <text>
         <r>
           <rPr>
@@ -478,7 +478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P131" authorId="20" xr:uid="{005C0000-0081-45AA-B123-00C60080009D}">
+    <comment ref="P131" authorId="20" xr:uid="{00A0000A-0043-4E99-8463-00F200DF00D3}">
       <text>
         <r>
           <rPr>
@@ -499,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R132" authorId="21" xr:uid="{00EB00D5-003A-40F6-AF6E-002900AB00D2}">
+    <comment ref="R132" authorId="21" xr:uid="{00A2000D-0011-43F9-A483-006100E2002A}">
       <text>
         <r>
           <rPr>
@@ -520,7 +520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R133" authorId="22" xr:uid="{0075001C-00AB-4C98-B70F-00D6007A00B1}">
+    <comment ref="R133" authorId="22" xr:uid="{002500D6-00C5-414B-BFBB-00C1009B0007}">
       <text>
         <r>
           <rPr>
@@ -548,23 +548,23 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={00F1005E-00BC-4939-BDC7-00B700A200D5}</author>
-    <author>tc={00620027-0050-4F49-B6CE-0060000E002D}</author>
-    <author>tc={004F0080-005D-4940-A94E-006800C50016}</author>
-    <author>tc={008A0061-0072-4AFB-812B-00C8009C00B8}</author>
-    <author>tc={00480005-0096-4740-9B0A-007B00850019}</author>
-    <author>tc={00B900F0-003B-4440-A168-008E00D0000F}</author>
-    <author>tc={007100F5-007B-4CF8-9AD5-006300A3008F}</author>
-    <author>tc={001200AA-005F-4D97-A26B-009700210008}</author>
-    <author>tc={00B0001B-00BA-4B3B-BE8F-009500DD0079}</author>
-    <author>tc={00DF00AD-0070-4201-B229-00DA00940079}</author>
-    <author>tc={00180017-0055-4A4E-84AF-00F9002F007A}</author>
-    <author>tc={002B00C8-0076-4C77-AC01-0006004E0075}</author>
-    <author>tc={005A0025-005E-4E48-AC7F-0030000800DE}</author>
-    <author>tc={00910096-006C-40A3-8BB7-007D002400C9}</author>
+    <author>tc={00950028-00CC-4025-BD8F-008400990049}</author>
+    <author>tc={009500EF-00E7-49CE-8384-003D00A90010}</author>
+    <author>tc={008A0068-00F0-40FC-BF90-00C300B800D5}</author>
+    <author>tc={008400DC-0069-4AF2-91A5-00B7004C0070}</author>
+    <author>tc={00C80048-008C-4516-BB69-00AA006200C7}</author>
+    <author>tc={00F900AA-0024-4EE5-8C8C-0041001F008E}</author>
+    <author>tc={002A002D-0044-4C68-BA2F-00DC006C0092}</author>
+    <author>tc={006C00B2-00A6-4BFF-937B-000300E400B2}</author>
+    <author>tc={005900E2-00B4-4B28-861F-00B800A20014}</author>
+    <author>tc={00F600E3-00C6-4C25-94B7-00F2004A00C1}</author>
+    <author>tc={00EE0068-00FC-49AD-A58D-00BA00EB006D}</author>
+    <author>tc={00C300A3-001B-483C-8A19-000200FE0031}</author>
+    <author>tc={003100FC-0085-4E9C-9819-00BF004E00D1}</author>
+    <author>tc={00CB00D3-00DB-4456-913D-00E200C50041}</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" xr:uid="{00F1005E-00BC-4939-BDC7-00B700A200D5}">
+    <comment ref="A8" authorId="0" xr:uid="{00950028-00CC-4025-BD8F-008400990049}">
       <text>
         <r>
           <rPr>
@@ -585,7 +585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G204" authorId="1" xr:uid="{00620027-0050-4F49-B6CE-0060000E002D}">
+    <comment ref="G204" authorId="1" xr:uid="{009500EF-00E7-49CE-8384-003D00A90010}">
       <text>
         <r>
           <rPr>
@@ -606,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G52" authorId="2" xr:uid="{004F0080-005D-4940-A94E-006800C50016}">
+    <comment ref="G52" authorId="2" xr:uid="{008A0068-00F0-40FC-BF90-00C300B800D5}">
       <text>
         <r>
           <rPr>
@@ -627,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G201" authorId="3" xr:uid="{008A0061-0072-4AFB-812B-00C8009C00B8}">
+    <comment ref="G201" authorId="3" xr:uid="{008400DC-0069-4AF2-91A5-00B7004C0070}">
       <text>
         <r>
           <rPr>
@@ -648,7 +648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G53" authorId="4" xr:uid="{00480005-0096-4740-9B0A-007B00850019}">
+    <comment ref="G53" authorId="4" xr:uid="{00C80048-008C-4516-BB69-00AA006200C7}">
       <text>
         <r>
           <rPr>
@@ -669,7 +669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G55" authorId="5" xr:uid="{00B900F0-003B-4440-A168-008E00D0000F}">
+    <comment ref="G55" authorId="5" xr:uid="{00F900AA-0024-4EE5-8C8C-0041001F008E}">
       <text>
         <r>
           <rPr>
@@ -690,7 +690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G213" authorId="6" xr:uid="{007100F5-007B-4CF8-9AD5-006300A3008F}">
+    <comment ref="G213" authorId="6" xr:uid="{002A002D-0044-4C68-BA2F-00DC006C0092}">
       <text>
         <r>
           <rPr>
@@ -711,7 +711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G54" authorId="7" xr:uid="{001200AA-005F-4D97-A26B-009700210008}">
+    <comment ref="G54" authorId="7" xr:uid="{006C00B2-00A6-4BFF-937B-000300E400B2}">
       <text>
         <r>
           <rPr>
@@ -732,7 +732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G203" authorId="8" xr:uid="{00B0001B-00BA-4B3B-BE8F-009500DD0079}">
+    <comment ref="G203" authorId="8" xr:uid="{005900E2-00B4-4B28-861F-00B800A20014}">
       <text>
         <r>
           <rPr>
@@ -753,7 +753,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G212" authorId="9" xr:uid="{00DF00AD-0070-4201-B229-00DA00940079}">
+    <comment ref="G212" authorId="9" xr:uid="{00F600E3-00C6-4C25-94B7-00F2004A00C1}">
       <text>
         <r>
           <rPr>
@@ -774,7 +774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G221" authorId="10" xr:uid="{00180017-0055-4A4E-84AF-00F9002F007A}">
+    <comment ref="G221" authorId="10" xr:uid="{00EE0068-00FC-49AD-A58D-00BA00EB006D}">
       <text>
         <r>
           <rPr>
@@ -795,7 +795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G220" authorId="11" xr:uid="{002B00C8-0076-4C77-AC01-0006004E0075}">
+    <comment ref="G220" authorId="11" xr:uid="{00C300A3-001B-483C-8A19-000200FE0031}">
       <text>
         <r>
           <rPr>
@@ -816,7 +816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G229" authorId="12" xr:uid="{005A0025-005E-4E48-AC7F-0030000800DE}">
+    <comment ref="G229" authorId="12" xr:uid="{003100FC-0085-4E9C-9819-00BF004E00D1}">
       <text>
         <r>
           <rPr>
@@ -837,7 +837,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G228" authorId="13" xr:uid="{00910096-006C-40A3-8BB7-007D002400C9}">
+    <comment ref="G228" authorId="13" xr:uid="{00CB00D3-00DB-4456-913D-00E200C50041}">
       <text>
         <r>
           <rPr>
@@ -7135,9 +7135,9 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="imv" id="{EE88B4CE-8DC1-F66B-1E7A-003A8DA2AD75}"/>
-  <person displayName="kau" id="{C8BB46AE-5317-9C79-11C1-62C2300928F1}"/>
-  <person displayName="Imv" id="{29526697-1064-DE24-7338-96C07AE7FA18}"/>
+  <person displayName="imv" id="{03E06F67-50F8-515E-CC0F-79F819FDB4A0}"/>
+  <person displayName="kau" id="{39CE98E5-0C73-D1E6-98A2-B26D262EA5C1}"/>
+  <person displayName="Imv" id="{DD78E0F0-A7EF-04FC-F9B0-0A344F3513FC}"/>
 </personList>
 </file>
 
@@ -7635,95 +7635,95 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="O130" personId="{EE88B4CE-8DC1-F66B-1E7A-003A8DA2AD75}" id="{00C6005C-001F-4DD7-A2F4-0067000400B4}" done="0">
+  <threadedComment ref="O130" personId="{03E06F67-50F8-515E-CC0F-79F819FDB4A0}" id="{00F80041-00C1-4402-A9AB-004800510087}" done="0">
     <text xml:space="preserve">1 обр
 </text>
   </threadedComment>
-  <threadedComment ref="T3" personId="{29526697-1064-DE24-7338-96C07AE7FA18}" id="{00E20070-0029-4E71-931B-002900170011}" done="0">
+  <threadedComment ref="T3" personId="{DD78E0F0-A7EF-04FC-F9B0-0A344F3513FC}" id="{00F90019-003D-4E78-A98D-000200AC0095}" done="0">
     <text xml:space="preserve">1 обрезное
 </text>
   </threadedComment>
-  <threadedComment ref="T4" personId="{29526697-1064-DE24-7338-96C07AE7FA18}" id="{006F002E-0040-43D7-B376-0072007200ED}" done="0">
+  <threadedComment ref="T4" personId="{DD78E0F0-A7EF-04FC-F9B0-0A344F3513FC}" id="{003A00C6-004E-45F0-A9C8-007A00F50075}" done="0">
     <text xml:space="preserve">2 обрезное
 </text>
   </threadedComment>
-  <threadedComment ref="C114" personId="{29526697-1064-DE24-7338-96C07AE7FA18}" id="{00D300EF-007F-49F9-BD49-00C800AA00EF}" done="0">
+  <threadedComment ref="C114" personId="{DD78E0F0-A7EF-04FC-F9B0-0A344F3513FC}" id="{00CF00F9-0090-44C3-8025-0084007F00F6}" done="0">
     <text xml:space="preserve">1 обрезное
 </text>
   </threadedComment>
-  <threadedComment ref="R116" personId="{EE88B4CE-8DC1-F66B-1E7A-003A8DA2AD75}" id="{008E00B8-00D2-491A-BD03-0094008B0070}" done="0">
+  <threadedComment ref="R116" personId="{03E06F67-50F8-515E-CC0F-79F819FDB4A0}" id="{004A0079-00B1-4D6F-A834-0038004A0080}" done="0">
     <text xml:space="preserve">3 обр
 </text>
   </threadedComment>
-  <threadedComment ref="O114" personId="{EE88B4CE-8DC1-F66B-1E7A-003A8DA2AD75}" id="{00C40000-005A-429A-BE76-00E900D10097}" done="0">
+  <threadedComment ref="O114" personId="{03E06F67-50F8-515E-CC0F-79F819FDB4A0}" id="{0049003B-00CC-4A3B-801B-00E60046004A}" done="0">
     <text xml:space="preserve">1 обр
 </text>
   </threadedComment>
-  <threadedComment ref="P114" personId="{EE88B4CE-8DC1-F66B-1E7A-003A8DA2AD75}" id="{008F00CD-0065-4DB1-9E1A-0082006E00DA}" done="0">
+  <threadedComment ref="P114" personId="{03E06F67-50F8-515E-CC0F-79F819FDB4A0}" id="{00D200D4-00FB-407E-9101-00FC00E5000B}" done="0">
     <text xml:space="preserve">1 обр
 </text>
   </threadedComment>
-  <threadedComment ref="C117" personId="{29526697-1064-DE24-7338-96C07AE7FA18}" id="{003800B7-004E-48C8-9AE5-00F2001C0074}" done="0">
+  <threadedComment ref="C117" personId="{DD78E0F0-A7EF-04FC-F9B0-0A344F3513FC}" id="{0010000C-0044-4DF3-B8F9-0006004500DB}" done="0">
     <text xml:space="preserve">2 обрезное
 </text>
   </threadedComment>
-  <threadedComment ref="S114" personId="{EE88B4CE-8DC1-F66B-1E7A-003A8DA2AD75}" id="{00460071-00C9-4B22-A43E-0004003200DD}" done="0">
+  <threadedComment ref="S114" personId="{03E06F67-50F8-515E-CC0F-79F819FDB4A0}" id="{007300E6-00F5-427E-918B-0072004F0053}" done="0">
     <text xml:space="preserve">3 обр
 </text>
   </threadedComment>
-  <threadedComment ref="Q117" personId="{EE88B4CE-8DC1-F66B-1E7A-003A8DA2AD75}" id="{0033003E-008F-4514-A317-008B00160029}" done="0">
+  <threadedComment ref="Q117" personId="{03E06F67-50F8-515E-CC0F-79F819FDB4A0}" id="{00290079-0025-45CF-B141-000F00B4000D}" done="0">
     <text xml:space="preserve">2 обр
 </text>
   </threadedComment>
-  <threadedComment ref="P115" personId="{EE88B4CE-8DC1-F66B-1E7A-003A8DA2AD75}" id="{002E00E3-0043-47C4-9C6A-00B6008C0070}" done="0">
+  <threadedComment ref="P115" personId="{03E06F67-50F8-515E-CC0F-79F819FDB4A0}" id="{002800FF-0099-46A0-A987-00D800C7001C}" done="0">
     <text xml:space="preserve">2 обр
 </text>
   </threadedComment>
-  <threadedComment ref="C115" personId="{29526697-1064-DE24-7338-96C07AE7FA18}" id="{006D0004-00FE-40A7-9635-00A400600023}" done="0">
+  <threadedComment ref="C115" personId="{DD78E0F0-A7EF-04FC-F9B0-0A344F3513FC}" id="{008A0016-001B-43E1-96A3-00CD001800F5}" done="0">
     <text xml:space="preserve">2 обрезное
 </text>
   </threadedComment>
-  <threadedComment ref="Q115" personId="{EE88B4CE-8DC1-F66B-1E7A-003A8DA2AD75}" id="{007D005C-00AB-47C6-9CEF-00DE00E5001E}" done="0">
+  <threadedComment ref="Q115" personId="{03E06F67-50F8-515E-CC0F-79F819FDB4A0}" id="{00D3003D-00AE-485E-BCF8-00CC00B5005A}" done="0">
     <text xml:space="preserve">1 обр
 </text>
   </threadedComment>
-  <threadedComment ref="Q133" personId="{EE88B4CE-8DC1-F66B-1E7A-003A8DA2AD75}" id="{0099008D-0038-44D9-AE4F-003000C500B7}" done="0">
+  <threadedComment ref="Q133" personId="{03E06F67-50F8-515E-CC0F-79F819FDB4A0}" id="{001300C1-00D8-47CF-B7E3-008A006E0074}" done="0">
     <text xml:space="preserve">2 обр
 </text>
   </threadedComment>
-  <threadedComment ref="C116" personId="{29526697-1064-DE24-7338-96C07AE7FA18}" id="{001700C5-00F0-4A7C-B4F5-004F009A006A}" done="0">
+  <threadedComment ref="C116" personId="{DD78E0F0-A7EF-04FC-F9B0-0A344F3513FC}" id="{00D20082-002F-40C0-B819-005000BA0088}" done="0">
     <text xml:space="preserve">1 обрезное
 </text>
   </threadedComment>
-  <threadedComment ref="R117" personId="{EE88B4CE-8DC1-F66B-1E7A-003A8DA2AD75}" id="{009C00CD-00E1-4EA1-AA6D-00E1002000C6}" done="0">
+  <threadedComment ref="R117" personId="{03E06F67-50F8-515E-CC0F-79F819FDB4A0}" id="{006000E2-00A9-4282-9A01-009F003F00A8}" done="0">
     <text xml:space="preserve">2 обр
 </text>
   </threadedComment>
-  <threadedComment ref="P130" personId="{EE88B4CE-8DC1-F66B-1E7A-003A8DA2AD75}" id="{00BF005A-0046-4321-A3E7-009B0033009B}" done="0">
+  <threadedComment ref="P130" personId="{03E06F67-50F8-515E-CC0F-79F819FDB4A0}" id="{007A004D-00C9-40A7-9CF9-009600C60012}" done="0">
     <text xml:space="preserve">1 обр
 </text>
   </threadedComment>
-  <threadedComment ref="Q131" personId="{EE88B4CE-8DC1-F66B-1E7A-003A8DA2AD75}" id="{00540008-0014-4581-9D4F-00F800D600FB}" done="0">
+  <threadedComment ref="Q131" personId="{03E06F67-50F8-515E-CC0F-79F819FDB4A0}" id="{00BB004E-0061-4091-9816-008B00CB00DE}" done="0">
     <text xml:space="preserve">1 обр
 </text>
   </threadedComment>
-  <threadedComment ref="S130" personId="{EE88B4CE-8DC1-F66B-1E7A-003A8DA2AD75}" id="{00EF00A1-00E2-466B-A243-000D003100BF}" done="0">
+  <threadedComment ref="S130" personId="{03E06F67-50F8-515E-CC0F-79F819FDB4A0}" id="{003800DF-0006-4DC1-824C-00F900B00043}" done="0">
     <text xml:space="preserve">3 обр
 </text>
   </threadedComment>
-  <threadedComment ref="E184" personId="{C8BB46AE-5317-9C79-11C1-62C2300928F1}" id="{00CD00AB-00EE-4AF2-A738-009100B80084}" done="0">
+  <threadedComment ref="E184" personId="{39CE98E5-0C73-D1E6-98A2-B26D262EA5C1}" id="{00520033-00E1-42E9-9993-00E7000B0077}" done="0">
     <text xml:space="preserve">55+10 на 2-ых вальцах
 </text>
   </threadedComment>
-  <threadedComment ref="P131" personId="{EE88B4CE-8DC1-F66B-1E7A-003A8DA2AD75}" id="{005C0000-0081-45AA-B123-00C60080009D}" done="0">
+  <threadedComment ref="P131" personId="{03E06F67-50F8-515E-CC0F-79F819FDB4A0}" id="{00A0000A-0043-4E99-8463-00F200DF00D3}" done="0">
     <text xml:space="preserve">2 обр
 </text>
   </threadedComment>
-  <threadedComment ref="R132" personId="{EE88B4CE-8DC1-F66B-1E7A-003A8DA2AD75}" id="{00EB00D5-003A-40F6-AF6E-002900AB00D2}" done="0">
+  <threadedComment ref="R132" personId="{03E06F67-50F8-515E-CC0F-79F819FDB4A0}" id="{00A2000D-0011-43F9-A483-006100E2002A}" done="0">
     <text xml:space="preserve">3 обр
 </text>
   </threadedComment>
-  <threadedComment ref="R133" personId="{EE88B4CE-8DC1-F66B-1E7A-003A8DA2AD75}" id="{0075001C-00AB-4C98-B70F-00D6007A00B1}" done="0">
+  <threadedComment ref="R133" personId="{03E06F67-50F8-515E-CC0F-79F819FDB4A0}" id="{002500D6-00C5-414B-BFBB-00C1009B0007}" done="0">
     <text xml:space="preserve">2 обр
 </text>
   </threadedComment>
@@ -7732,59 +7732,59 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A8" personId="{29526697-1064-DE24-7338-96C07AE7FA18}" id="{00F1005E-00BC-4939-BDC7-00B700A200D5}" done="0">
+  <threadedComment ref="A8" personId="{DD78E0F0-A7EF-04FC-F9B0-0A344F3513FC}" id="{00950028-00CC-4025-BD8F-008400990049}" done="0">
     <text xml:space="preserve">Был станок №1
 </text>
   </threadedComment>
-  <threadedComment ref="G204" personId="{29526697-1064-DE24-7338-96C07AE7FA18}" id="{00620027-0050-4F49-B6CE-0060000E002D}" done="0">
+  <threadedComment ref="G204" personId="{DD78E0F0-A7EF-04FC-F9B0-0A344F3513FC}" id="{009500EF-00E7-49CE-8384-003D00A90010}" done="0">
     <text xml:space="preserve">чистка
 </text>
   </threadedComment>
-  <threadedComment ref="G52" personId="{29526697-1064-DE24-7338-96C07AE7FA18}" id="{004F0080-005D-4940-A94E-006800C50016}" done="0">
+  <threadedComment ref="G52" personId="{DD78E0F0-A7EF-04FC-F9B0-0A344F3513FC}" id="{008A0068-00F0-40FC-BF90-00C300B800D5}" done="0">
     <text xml:space="preserve">чистка
 </text>
   </threadedComment>
-  <threadedComment ref="G201" personId="{29526697-1064-DE24-7338-96C07AE7FA18}" id="{008A0061-0072-4AFB-812B-00C8009C00B8}" done="0">
+  <threadedComment ref="G201" personId="{DD78E0F0-A7EF-04FC-F9B0-0A344F3513FC}" id="{008400DC-0069-4AF2-91A5-00B7004C0070}" done="0">
     <text xml:space="preserve">чистка
 </text>
   </threadedComment>
-  <threadedComment ref="G53" personId="{29526697-1064-DE24-7338-96C07AE7FA18}" id="{00480005-0096-4740-9B0A-007B00850019}" done="0">
+  <threadedComment ref="G53" personId="{DD78E0F0-A7EF-04FC-F9B0-0A344F3513FC}" id="{00C80048-008C-4516-BB69-00AA006200C7}" done="0">
     <text xml:space="preserve">чистка
 </text>
   </threadedComment>
-  <threadedComment ref="G55" personId="{29526697-1064-DE24-7338-96C07AE7FA18}" id="{00B900F0-003B-4440-A168-008E00D0000F}" done="0">
+  <threadedComment ref="G55" personId="{DD78E0F0-A7EF-04FC-F9B0-0A344F3513FC}" id="{00F900AA-0024-4EE5-8C8C-0041001F008E}" done="0">
     <text xml:space="preserve">чистка
 </text>
   </threadedComment>
-  <threadedComment ref="G213" personId="{29526697-1064-DE24-7338-96C07AE7FA18}" id="{007100F5-007B-4CF8-9AD5-006300A3008F}" done="0">
+  <threadedComment ref="G213" personId="{DD78E0F0-A7EF-04FC-F9B0-0A344F3513FC}" id="{002A002D-0044-4C68-BA2F-00DC006C0092}" done="0">
     <text xml:space="preserve">чистка
 </text>
   </threadedComment>
-  <threadedComment ref="G54" personId="{29526697-1064-DE24-7338-96C07AE7FA18}" id="{001200AA-005F-4D97-A26B-009700210008}" done="0">
+  <threadedComment ref="G54" personId="{DD78E0F0-A7EF-04FC-F9B0-0A344F3513FC}" id="{006C00B2-00A6-4BFF-937B-000300E400B2}" done="0">
     <text xml:space="preserve">чистка
 </text>
   </threadedComment>
-  <threadedComment ref="G203" personId="{29526697-1064-DE24-7338-96C07AE7FA18}" id="{00B0001B-00BA-4B3B-BE8F-009500DD0079}" done="0">
+  <threadedComment ref="G203" personId="{DD78E0F0-A7EF-04FC-F9B0-0A344F3513FC}" id="{005900E2-00B4-4B28-861F-00B800A20014}" done="0">
     <text xml:space="preserve">чистка
 </text>
   </threadedComment>
-  <threadedComment ref="G212" personId="{29526697-1064-DE24-7338-96C07AE7FA18}" id="{00DF00AD-0070-4201-B229-00DA00940079}" done="0">
+  <threadedComment ref="G212" personId="{DD78E0F0-A7EF-04FC-F9B0-0A344F3513FC}" id="{00F600E3-00C6-4C25-94B7-00F2004A00C1}" done="0">
     <text xml:space="preserve">чистка
 </text>
   </threadedComment>
-  <threadedComment ref="G221" personId="{29526697-1064-DE24-7338-96C07AE7FA18}" id="{00180017-0055-4A4E-84AF-00F9002F007A}" done="0">
+  <threadedComment ref="G221" personId="{DD78E0F0-A7EF-04FC-F9B0-0A344F3513FC}" id="{00EE0068-00FC-49AD-A58D-00BA00EB006D}" done="0">
     <text xml:space="preserve">чистка
 </text>
   </threadedComment>
-  <threadedComment ref="G220" personId="{29526697-1064-DE24-7338-96C07AE7FA18}" id="{002B00C8-0076-4C77-AC01-0006004E0075}" done="0">
+  <threadedComment ref="G220" personId="{DD78E0F0-A7EF-04FC-F9B0-0A344F3513FC}" id="{00C300A3-001B-483C-8A19-000200FE0031}" done="0">
     <text xml:space="preserve">чистка
 </text>
   </threadedComment>
-  <threadedComment ref="G229" personId="{29526697-1064-DE24-7338-96C07AE7FA18}" id="{005A0025-005E-4E48-AC7F-0030000800DE}" done="0">
+  <threadedComment ref="G229" personId="{DD78E0F0-A7EF-04FC-F9B0-0A344F3513FC}" id="{003100FC-0085-4E9C-9819-00BF004E00D1}" done="0">
     <text xml:space="preserve">чистка
 </text>
   </threadedComment>
-  <threadedComment ref="G228" personId="{29526697-1064-DE24-7338-96C07AE7FA18}" id="{00910096-006C-40A3-8BB7-007D002400C9}" done="0">
+  <threadedComment ref="G228" personId="{DD78E0F0-A7EF-04FC-F9B0-0A344F3513FC}" id="{00CB00D3-00DB-4456-913D-00E200C50041}" done="0">
     <text xml:space="preserve">чистка
 </text>
   </threadedComment>
